--- a/biology/Zoologie/Leonardo_Fea/Leonardo_Fea.xlsx
+++ b/biology/Zoologie/Leonardo_Fea/Leonardo_Fea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonardo Fea est un explorateur, un zoologiste et un artiste italien du XIXe siècle, né le 24 juillet 1852 à Turin et mort le 27 avril 1903 dans cette même ville.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leonardo Fea est assistant au Muséum de Gênes de 1872 à 1903. Il fait plusieurs voyages importants dont un en Birmanie en 1885 et où il passe quatre ans, dans le Golfe de Guinée et aux îles du Cap-Vert en 1898. Il en rapporte de riches collections zoologiques, notamment d’oiseaux et d’insectes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leonardo Fea est assistant au Muséum de Gênes de 1872 à 1903. Il fait plusieurs voyages importants dont un en Birmanie en 1885 et où il passe quatre ans, dans le Golfe de Guinée et aux îles du Cap-Vert en 1898. Il en rapporte de riches collections zoologiques, notamment d’oiseaux et d’insectes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son ami le comte Salvadori (1835-1923) lui dédie le merle de Fea ou Turdus feae en 1887 et le pétrel gongon ou Pterodroma feae en 1899.
 Autres espèces dédiées
